--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DB72C74-9B6A-4A71-83D9-2881782D62AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30476ACC-6673-483B-9F43-26E5B999E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4C09B6B1-B68F-4A88-9AD1-51E2E8F79782}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>Nguyễn Thị Kiều Thu</t>
   </si>
   <si>
-    <t>Nguyễn thị Kiều Nhi</t>
-  </si>
-  <si>
     <t>Trần Huy Tín</t>
   </si>
   <si>
@@ -186,6 +183,9 @@
   </si>
   <si>
     <t>3,17</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Nhi</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -256,15 +256,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,16 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAA5C8-F262-4DAE-B14C-B79CBE301804}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,212 +741,201 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>3</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
-        <v>3</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
